--- a/CORRECTIONS/Results_comparison_corrections.xlsx
+++ b/CORRECTIONS/Results_comparison_corrections.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_Chapter1\CORRECTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41425D4-7718-4A98-9DDE-B9AC7AB7835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AE09E-A0D5-4387-8C74-F2A46AC06717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18EDAEC8-A53F-42D8-AF64-581CE47CBB50}"/>
   </bookViews>
@@ -366,9 +366,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -658,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -695,33 +695,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,250 +720,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1369,7 +1139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660592A-F776-4463-AACA-3B064C63B38A}">
   <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -1391,7 +1161,6 @@
       <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="34"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
@@ -1400,22 +1169,22 @@
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -1436,7 +1205,7 @@
       <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="36"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="13" t="s">
         <v>46</v>
       </c>
@@ -1462,8 +1231,7 @@
       </c>
       <c r="B4" s="1"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="34"/>
+      <c r="G4" s="32"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1483,8 +1251,8 @@
         <v>18</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="42" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="36" t="s">
         <v>5</v>
       </c>
       <c r="M5" s="8"/>
@@ -1506,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="38"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1535,7 +1303,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1564,8 +1332,8 @@
         <v>18</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="43" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="37" t="s">
         <v>72</v>
       </c>
       <c r="M8" s="8"/>
@@ -1579,7 +1347,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="38"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1608,7 +1376,7 @@
         <v>0.56200000000000006</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="39"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="2" t="s">
         <v>65</v>
       </c>
@@ -1642,7 +1410,7 @@
       <c r="F11" s="10">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="2" t="s">
         <v>66</v>
       </c>
@@ -1676,7 +1444,7 @@
       <c r="F12" s="10">
         <v>2.8610000000000002</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1710,7 +1478,7 @@
       <c r="F13" s="10">
         <v>1.7869999999999999</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="34"/>
       <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
@@ -1744,7 +1512,7 @@
       <c r="F14" s="10">
         <v>2</v>
       </c>
-      <c r="G14" s="40"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1778,7 +1546,7 @@
       <c r="F15" s="10">
         <v>0.999</v>
       </c>
-      <c r="G15" s="40"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="7" t="s">
         <v>70</v>
       </c>
@@ -1812,16 +1580,16 @@
       <c r="F16" s="11">
         <v>1.0089999999999999</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="34"/>
+      <c r="H16" s="35" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="41">
+      <c r="K16" s="35">
         <v>2.8062999999999998</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="35">
         <v>0.4965</v>
       </c>
       <c r="M16" s="8">
@@ -1830,47 +1598,46 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G17" s="34"/>
-      <c r="M17" s="24"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
+      <c r="H21" s="29"/>
+      <c r="I21" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="24">
         <v>-6.4889999999999999</v>
       </c>
-      <c r="C22" s="28">
+      <c r="C22" s="26">
         <v>0.374</v>
       </c>
       <c r="D22" s="8">
@@ -1898,13 +1665,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="24">
         <v>-3.4849999999999998E-3</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="27">
         <v>4.7219999999999996E-3</v>
       </c>
       <c r="D23" s="8">
@@ -1912,17 +1679,16 @@
         <v>0.99652106556429032</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="34"/>
       <c r="M23" s="15"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="24">
         <v>0.48730000000000001</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="27">
         <v>5.4370000000000002E-2</v>
       </c>
       <c r="D24" s="8">
@@ -1930,19 +1696,19 @@
         <v>1.6279149106029205</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="42" t="s">
+      <c r="H24" s="36" t="s">
         <v>5</v>
       </c>
       <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="24">
         <v>0.43240000000000001</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="27">
         <v>9.6860000000000002E-2</v>
       </c>
       <c r="D25" s="8">
@@ -1958,13 +1724,13 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="24">
         <v>0.22159999999999999</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="27">
         <v>5.3969999999999997E-2</v>
       </c>
       <c r="D26" s="8">
@@ -1980,13 +1746,13 @@
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="24">
         <v>-1.1979999999999999E-2</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="27">
         <v>7.4060000000000003E-3</v>
       </c>
       <c r="D27" s="8">
@@ -1994,19 +1760,19 @@
         <v>0.98809147449380341</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="43" t="s">
+      <c r="H27" s="37" t="s">
         <v>72</v>
       </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="24">
         <v>2.366E-2</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="27">
         <v>2.3120000000000002E-2</v>
       </c>
       <c r="D28" s="8">
@@ -2017,22 +1783,22 @@
       <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="39">
         <v>-13.4</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="39">
         <v>0.7429</v>
       </c>
-      <c r="M28" s="48"/>
+      <c r="M28" s="41"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="24">
         <v>7.8799999999999996E-4</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="27">
         <v>2.0509999999999999E-3</v>
       </c>
       <c r="D29" s="8">
@@ -2043,25 +1809,25 @@
       <c r="H29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="39">
         <v>5.5379999999999999E-2</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="39">
         <v>2.8840000000000001E-2</v>
       </c>
-      <c r="M29" s="48">
+      <c r="M29" s="41">
         <f>EXP(K29)</f>
         <v>1.0569421764009668</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="24">
         <v>-2.964E-2</v>
       </c>
-      <c r="C30" s="29">
+      <c r="C30" s="27">
         <v>0.20519999999999999</v>
       </c>
       <c r="D30" s="8">
@@ -2072,25 +1838,25 @@
       <c r="H30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="39">
         <v>-3.4540000000000001E-2</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="39">
         <v>2.6530000000000001E-2</v>
       </c>
-      <c r="M30" s="48">
+      <c r="M30" s="41">
         <f t="shared" ref="M30:M36" si="2">EXP(K30)</f>
         <v>0.96604969692576448</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="24">
         <v>-1.7329999999999999E-3</v>
       </c>
-      <c r="C31" s="29">
+      <c r="C31" s="27">
         <v>4.8599999999999997E-3</v>
       </c>
       <c r="D31" s="8">
@@ -2101,25 +1867,25 @@
       <c r="H31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="39">
         <v>5.398E-3</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="39">
         <v>1.521E-2</v>
       </c>
-      <c r="M31" s="48">
+      <c r="M31" s="41">
         <f t="shared" si="2"/>
         <v>1.0054125954522659</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="24">
         <v>4.9589999999999998E-5</v>
       </c>
-      <c r="C32" s="29">
+      <c r="C32" s="27">
         <v>6.6730000000000001E-4</v>
       </c>
       <c r="D32" s="8">
@@ -2130,25 +1896,25 @@
       <c r="H32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="39">
         <v>-7.4289999999999995E-2</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="39">
         <v>1.865E-2</v>
       </c>
-      <c r="M32" s="48">
+      <c r="M32" s="41">
         <f t="shared" si="2"/>
         <v>0.92840241809694335</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="24">
         <v>1.043E-5</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="27">
         <v>9.9120000000000002E-4</v>
       </c>
       <c r="D33" s="8">
@@ -2159,25 +1925,25 @@
       <c r="H33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K33" s="45">
+      <c r="K33" s="39">
         <v>1.2840000000000001E-2</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="39">
         <v>1.8010000000000002E-2</v>
       </c>
-      <c r="M33" s="48">
+      <c r="M33" s="41">
         <f t="shared" si="2"/>
         <v>1.0129227867478263</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="24">
         <v>5.2769999999999998E-5</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="27">
         <v>3.5340000000000002E-4</v>
       </c>
       <c r="D34" s="8">
@@ -2188,25 +1954,25 @@
       <c r="H34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="39">
         <v>-6.6239999999999993E-2</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="39">
         <v>1.6109999999999999E-2</v>
       </c>
-      <c r="M34" s="48">
+      <c r="M34" s="41">
         <f t="shared" si="2"/>
         <v>0.93590621984260103</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="25">
         <v>1.494E-4</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="28">
         <v>1.0070000000000001E-3</v>
       </c>
       <c r="D35" s="8">
@@ -2217,44 +1983,42 @@
       <c r="H35" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="46">
+      <c r="K35" s="39">
         <v>1.994</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="39">
         <v>0.64300000000000002</v>
       </c>
-      <c r="M35" s="48">
+      <c r="M35" s="41">
         <f t="shared" si="2"/>
         <v>7.3448544997393581</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="24"/>
+      <c r="D36" s="22"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="35" t="s">
         <v>71</v>
       </c>
       <c r="I36" s="16"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="47">
+      <c r="K36" s="40">
         <v>2.97</v>
       </c>
-      <c r="L36" s="47">
+      <c r="L36" s="40">
         <v>0.76349999999999996</v>
       </c>
-      <c r="M36" s="48">
+      <c r="M36" s="41">
         <f t="shared" si="2"/>
         <v>19.491919596031121</v>
       </c>
-      <c r="N36" s="44"/>
+      <c r="N36" s="38"/>
     </row>
     <row r="37" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>45</v>
       </c>
-      <c r="M37" s="24"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
@@ -2265,7 +2029,7 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C39" t="s">
@@ -2288,7 +2052,7 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="18"/>
+      <c r="B40" s="42"/>
       <c r="C40" t="s">
         <v>35</v>
       </c>
@@ -2298,7 +2062,7 @@
       <c r="E40">
         <v>9.9959999999999993E-2</v>
       </c>
-      <c r="H40" s="18" t="s">
+      <c r="H40" s="42" t="s">
         <v>29</v>
       </c>
       <c r="I40" t="s">
@@ -2312,7 +2076,7 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="18"/>
+      <c r="B41" s="42"/>
       <c r="C41" t="s">
         <v>34</v>
       </c>
@@ -2322,7 +2086,7 @@
       <c r="E41">
         <v>1.4626999999999999</v>
       </c>
-      <c r="H41" s="18"/>
+      <c r="H41" s="42"/>
       <c r="I41" t="s">
         <v>35</v>
       </c>
@@ -2334,7 +2098,7 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
+      <c r="B42" s="42"/>
       <c r="C42" t="s">
         <v>35</v>
       </c>
@@ -2344,7 +2108,7 @@
       <c r="E42">
         <v>3.8780000000000002E-2</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="42" t="s">
         <v>24</v>
       </c>
       <c r="I42" t="s">
@@ -2358,7 +2122,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C43" t="s">
@@ -2370,7 +2134,7 @@
       <c r="E43">
         <v>1.38897</v>
       </c>
-      <c r="H43" s="18"/>
+      <c r="H43" s="42"/>
       <c r="I43" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2146,7 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
+      <c r="B44" s="42"/>
       <c r="C44" t="s">
         <v>35</v>
       </c>
@@ -2394,7 +2158,7 @@
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
+      <c r="B45" s="42"/>
       <c r="C45" t="s">
         <v>34</v>
       </c>
@@ -2406,7 +2170,7 @@
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
+      <c r="B46" s="42"/>
       <c r="C46" t="s">
         <v>35</v>
       </c>
@@ -2418,7 +2182,7 @@
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="42" t="s">
         <v>24</v>
       </c>
       <c r="C47" t="s">
@@ -2432,7 +2196,7 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
+      <c r="B48" s="42"/>
       <c r="C48" t="s">
         <v>35</v>
       </c>
@@ -2444,7 +2208,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
+      <c r="B49" s="42"/>
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -2456,7 +2220,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
+      <c r="B50" s="42"/>
       <c r="C50" t="s">
         <v>35</v>
       </c>
@@ -2468,7 +2232,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C51" t="s">
@@ -2482,7 +2246,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
+      <c r="B52" s="42"/>
       <c r="C52" t="s">
         <v>35</v>
       </c>
@@ -2494,7 +2258,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="18"/>
+      <c r="B53" s="42"/>
       <c r="C53" t="s">
         <v>34</v>
       </c>
@@ -2506,7 +2270,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
+      <c r="B54" s="42"/>
       <c r="C54" t="s">
         <v>35</v>
       </c>
@@ -2518,7 +2282,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C55" t="s">
@@ -2532,7 +2296,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
+      <c r="B56" s="42"/>
       <c r="C56" t="s">
         <v>35</v>
       </c>
@@ -2544,7 +2308,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
+      <c r="B57" s="42"/>
       <c r="C57" t="s">
         <v>34</v>
       </c>
@@ -2556,7 +2320,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
+      <c r="B58" s="42"/>
       <c r="C58" t="s">
         <v>35</v>
       </c>
@@ -2568,7 +2332,7 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="42" t="s">
         <v>27</v>
       </c>
       <c r="C59" t="s">
@@ -2582,7 +2346,7 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
+      <c r="B60" s="42"/>
       <c r="C60" t="s">
         <v>35</v>
       </c>
@@ -2594,7 +2358,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
+      <c r="B61" s="42"/>
       <c r="C61" t="s">
         <v>34</v>
       </c>
@@ -2606,7 +2370,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
+      <c r="B62" s="42"/>
       <c r="C62" t="s">
         <v>35</v>
       </c>
@@ -2618,7 +2382,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="42" t="s">
         <v>28</v>
       </c>
       <c r="C63" t="s">
@@ -2632,7 +2396,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="18"/>
+      <c r="B64" s="42"/>
       <c r="C64" t="s">
         <v>35</v>
       </c>
@@ -2644,7 +2408,7 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="18"/>
+      <c r="B65" s="42"/>
       <c r="C65" t="s">
         <v>34</v>
       </c>
@@ -2656,7 +2420,7 @@
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
+      <c r="B66" s="42"/>
       <c r="C66" t="s">
         <v>35</v>
       </c>
@@ -2668,7 +2432,7 @@
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="42" t="s">
         <v>29</v>
       </c>
       <c r="C67" t="s">
@@ -2682,7 +2446,7 @@
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
+      <c r="B68" s="42"/>
       <c r="C68" t="s">
         <v>35</v>
       </c>
@@ -2694,7 +2458,7 @@
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
+      <c r="B69" s="42"/>
       <c r="C69" t="s">
         <v>34</v>
       </c>
@@ -2706,7 +2470,7 @@
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
+      <c r="B70" s="42"/>
       <c r="C70" t="s">
         <v>35</v>
       </c>

--- a/CORRECTIONS/Results_comparison_corrections.xlsx
+++ b/CORRECTIONS/Results_comparison_corrections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt Nuttall\Documents\PhD\PhD_Chapter1\CORRECTIONS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818AE09E-A0D5-4387-8C74-F2A46AC06717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF03A6A-8782-4FB0-AD3D-9E547D3A3F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18EDAEC8-A53F-42D8-AF64-581CE47CBB50}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t xml:space="preserve">Variable </t>
   </si>
@@ -359,6 +359,15 @@
   </si>
   <si>
     <t>Prov</t>
+  </si>
+  <si>
+    <t>MEANS</t>
+  </si>
+  <si>
+    <t>commune</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
 </sst>
 </file>
@@ -1137,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660592A-F776-4463-AACA-3B064C63B38A}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2168,6 +2177,12 @@
       <c r="E45">
         <v>1.4632700000000001</v>
       </c>
+      <c r="I45" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B46" s="42"/>
@@ -2180,6 +2195,17 @@
       <c r="E46">
         <v>3.8789999999999998E-2</v>
       </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <f>AVERAGE(J40,J42)</f>
+        <v>3.0420929999999999</v>
+      </c>
+      <c r="J46">
+        <f>AVERAGE(K40,K42)</f>
+        <v>1.7441550000000001</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B47" s="42" t="s">
@@ -2193,6 +2219,17 @@
       </c>
       <c r="E47">
         <v>1.38879</v>
+      </c>
+      <c r="H47" t="s">
+        <v>35</v>
+      </c>
+      <c r="I47">
+        <f>AVERAGE(J41,J43)</f>
+        <v>7.4894999999999996E-3</v>
+      </c>
+      <c r="J47">
+        <f>AVERAGE(K41,K43)</f>
+        <v>8.6540000000000006E-2</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
@@ -2577,6 +2614,69 @@
       <c r="F77">
         <f>MAX(E42,E46,E50,E54,E58,E62,E66,E70)</f>
         <v>3.9440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80">
+        <f>AVERAGE(C74:D74)</f>
+        <v>1.9293749999999998</v>
+      </c>
+      <c r="D80">
+        <f>AVERAGE(E74:F74)</f>
+        <v>1.3890199999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81">
+        <f>AVERAGE(C75:D75)</f>
+        <v>9.9915000000000004E-3</v>
+      </c>
+      <c r="D81">
+        <f>AVERAGE(E75:F75)</f>
+        <v>9.9959999999999993E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <f>AVERAGE(C76:D76)</f>
+        <v>2.1444025</v>
+      </c>
+      <c r="D82">
+        <f>AVERAGE(E76:F76)</f>
+        <v>1.4643799999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <f>AVERAGE(C77:D77)</f>
+        <v>1.5249999999999999E-3</v>
+      </c>
+      <c r="D83">
+        <f>AVERAGE(E77:F77)</f>
+        <v>3.9055000000000006E-2</v>
       </c>
     </row>
   </sheetData>
